--- a/data/get_data/interRange_20/new200interRange20_Performance_evaluation_seed_10000_10200.xlsx
+++ b/data/get_data/interRange_20/new200interRange20_Performance_evaluation_seed_10000_10200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\interRange_20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B953E-333C-45C8-B408-4650194A332A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2A1C7F-E632-42BA-A087-32EF09AD2B01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,13 +250,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.30909090909090797</c:v>
+                  <c:v>30.909090909090796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55757575757575695</c:v>
+                  <c:v>55.757575757575694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81717171717171699</c:v>
+                  <c:v>81.717171717171695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,13 +333,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54416243654822305</c:v>
+                  <c:v>54.416243654822303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78121827411167499</c:v>
+                  <c:v>78.121827411167502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,13 +414,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.24949494949494899</c:v>
+                  <c:v>24.949494949494898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46010101010101001</c:v>
+                  <c:v>46.010101010101003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71363636363636296</c:v>
+                  <c:v>71.363636363636289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,13 +496,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.233502538071065</c:v>
+                  <c:v>23.350253807106501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43451776649746199</c:v>
+                  <c:v>43.451776649746201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67664974619289298</c:v>
+                  <c:v>67.664974619289296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,13 +577,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.24292929292929299</c:v>
+                  <c:v>24.292929292929301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45151515151515098</c:v>
+                  <c:v>45.151515151515099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71868686868686804</c:v>
+                  <c:v>71.868686868686808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,13 +659,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.22639593908629399</c:v>
+                  <c:v>22.639593908629401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.416243654822334</c:v>
+                  <c:v>41.624365482233401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66192893401015196</c:v>
+                  <c:v>66.192893401015198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,8 +805,8 @@
         <c:axId val="428493760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.85000000000000009"/>
-          <c:min val="0.2"/>
+          <c:max val="85"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1911,7 +1911,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1992,17 +1992,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="9"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2075,14 +2074,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2156,15 +2155,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="9"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2238,14 +2237,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="9"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2319,8 +2318,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -5377,16 +5376,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>430891</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>179983</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>536302</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>615786</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>199322</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36078</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>48940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5413,16 +5412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>501692</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175904</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15773</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>689309</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>187615</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>198627</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5451,16 +5450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>140813</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>132773</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>284121</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>320265</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>166255</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>473097</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>97847</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6295,11 +6294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="3" spans="2:30">
       <c r="B3" t="s">
@@ -7112,13 +7111,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="1">
-        <v>0.30909090909090797</v>
+        <v>30.909090909090796</v>
       </c>
       <c r="E26" s="1">
-        <v>0.55757575757575695</v>
+        <v>55.757575757575694</v>
       </c>
       <c r="F26" s="1">
-        <v>0.81717171717171699</v>
+        <v>81.717171717171695</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -7150,13 +7149,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
-        <v>0.54416243654822305</v>
+        <v>54.416243654822303</v>
       </c>
       <c r="F27" s="1">
-        <v>0.78121827411167499</v>
+        <v>78.121827411167502</v>
       </c>
       <c r="H27" t="s">
         <v>10</v>
@@ -7188,13 +7187,13 @@
         <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>0.24949494949494899</v>
+        <v>24.949494949494898</v>
       </c>
       <c r="E28" s="1">
-        <v>0.46010101010101001</v>
+        <v>46.010101010101003</v>
       </c>
       <c r="F28" s="1">
-        <v>0.71363636363636296</v>
+        <v>71.363636363636289</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -7226,13 +7225,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="1">
-        <v>0.233502538071065</v>
+        <v>23.350253807106501</v>
       </c>
       <c r="E29" s="1">
-        <v>0.43451776649746199</v>
+        <v>43.451776649746201</v>
       </c>
       <c r="F29" s="1">
-        <v>0.67664974619289298</v>
+        <v>67.664974619289296</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -7264,13 +7263,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>0.24292929292929299</v>
+        <v>24.292929292929301</v>
       </c>
       <c r="E30" s="1">
-        <v>0.45151515151515098</v>
+        <v>45.151515151515099</v>
       </c>
       <c r="F30" s="1">
-        <v>0.71868686868686804</v>
+        <v>71.868686868686808</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -7302,13 +7301,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="1">
-        <v>0.22639593908629399</v>
+        <v>22.639593908629401</v>
       </c>
       <c r="E31" s="1">
-        <v>0.416243654822334</v>
+        <v>41.624365482233401</v>
       </c>
       <c r="F31" s="1">
-        <v>0.66192893401015196</v>
+        <v>66.192893401015198</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
